--- a/resources/factors_example.xlsx
+++ b/resources/factors_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/holly/Documents/Masters/HPDM099/GHG_Emissions_Calculator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FFBE7-1346-8340-A899-848729F20FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240ED3F2-AA7C-DE43-9227-47B4077E1F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>component</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -299,15 +302,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -325,6 +328,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
